--- a/src/TestData/DataAccoutCreate.xlsx
+++ b/src/TestData/DataAccoutCreate.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{61A708A4-AE4D-46DA-BA2F-945B98740409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtiwari\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="dataAccountCreate" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Gender</t>
   </si>
@@ -71,9 +75,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>raghv_jki@gmail.com</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -101,9 +102,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>raghv1_jki@gmail.com</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
@@ -114,12 +112,24 @@
   </si>
   <si>
     <t>9001 olympia park plaza</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>raghv_jki555@gmail.com</t>
+  </si>
+  <si>
+    <t>raghv1980_jki@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,9 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,32 +452,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -516,21 +527,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -542,22 +553,22 @@
         <v>1987</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
       </c>
       <c r="M2">
         <v>40245</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2">
         <v>50246901265</v>
@@ -566,21 +577,21 @@
         <v>9833281948</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -592,22 +603,22 @@
         <v>1987</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
       </c>
       <c r="M3">
         <v>40245</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3">
         <v>50246901265</v>
@@ -618,9 +629,185 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="str">
+        <f>$F$6&amp;"  "&amp;E6</f>
+        <v>String  email</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G21" si="0">$F$6&amp;"  "&amp;E7</f>
+        <v>String  Gender</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>String  firstname</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>String  lastname</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>String  password</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>String  days</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>String  month</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>String  year</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>String  company</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>String  address</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>String  city</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>String  state</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>String  postcode</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>String  other</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>String  phone</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>String  mobile</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>